--- a/银行贷款信用分析/Dataset/Dataset.xlsx
+++ b/银行贷款信用分析/Dataset/Dataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Yunnan Uni\数学建模\Jianmo_lesson\银行贷款信用分析\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{468305AB-1582-447D-B5CF-1B1D053D94DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0C0840F-C831-42BF-801D-756EFC51D69E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="12">
   <si>
     <t>当前信用好坏</t>
   </si>
@@ -58,6 +58,10 @@
   </si>
   <si>
     <t>未履行还贷责任</t>
+  </si>
+  <si>
+    <t>X8</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -465,18 +469,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="9" width="18.58203125" style="5" customWidth="1"/>
+    <col min="1" max="9" width="15.58203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="15.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,8 +509,11 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
@@ -516,25 +524,28 @@
         <v>23</v>
       </c>
       <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
         <v>7</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="3">
+      <c r="G2" s="3">
         <v>31</v>
       </c>
-      <c r="G2" s="3">
+      <c r="H2" s="3">
         <v>6.6</v>
       </c>
-      <c r="H2" s="3">
+      <c r="I2" s="3">
         <v>0.34</v>
       </c>
-      <c r="I2" s="4">
+      <c r="J2" s="4">
         <v>1.71</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
@@ -545,25 +556,28 @@
         <v>34</v>
       </c>
       <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
         <v>17</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
-      <c r="F3" s="3">
+      <c r="G3" s="3">
         <v>59</v>
       </c>
-      <c r="G3" s="3">
+      <c r="H3" s="3">
         <v>8</v>
       </c>
-      <c r="H3" s="3">
+      <c r="I3" s="3">
         <v>1.81</v>
       </c>
-      <c r="I3" s="4">
+      <c r="J3" s="4">
         <v>2.91</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
@@ -574,25 +588,28 @@
         <v>42</v>
       </c>
       <c r="D4" s="3">
+        <v>2</v>
+      </c>
+      <c r="E4" s="3">
         <v>7</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>23</v>
       </c>
-      <c r="F4" s="3">
+      <c r="G4" s="3">
         <v>41</v>
       </c>
-      <c r="G4" s="3">
+      <c r="H4" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H4" s="3">
+      <c r="I4" s="3">
         <v>0.94</v>
       </c>
-      <c r="I4" s="4">
+      <c r="J4" s="4">
         <v>0.94</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
@@ -603,25 +620,28 @@
         <v>39</v>
       </c>
       <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
         <v>19</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="F5" s="3">
+      <c r="G5" s="3">
         <v>48</v>
       </c>
-      <c r="G5" s="3">
+      <c r="H5" s="3">
         <v>13.1</v>
       </c>
-      <c r="H5" s="3">
+      <c r="I5" s="3">
         <v>1.93</v>
       </c>
-      <c r="I5" s="4">
+      <c r="J5" s="4">
         <v>4.3600000000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="3" t="s">
         <v>9</v>
       </c>
@@ -632,25 +652,28 @@
         <v>35</v>
       </c>
       <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
         <v>9</v>
       </c>
-      <c r="E6" s="3">
-        <v>1</v>
-      </c>
       <c r="F6" s="3">
+        <v>1</v>
+      </c>
+      <c r="G6" s="3">
         <v>34</v>
       </c>
-      <c r="G6" s="3">
+      <c r="H6" s="3">
         <v>5</v>
       </c>
-      <c r="H6" s="3">
+      <c r="I6" s="3">
         <v>0.4</v>
       </c>
-      <c r="I6" s="4">
+      <c r="J6" s="4">
         <v>1.3</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
         <v>10</v>
       </c>
@@ -664,22 +687,25 @@
         <v>1</v>
       </c>
       <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
+      <c r="G7" s="3">
         <v>24</v>
       </c>
-      <c r="G7" s="3">
+      <c r="H7" s="3">
         <v>15.1</v>
       </c>
-      <c r="H7" s="3">
+      <c r="I7" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="I7" s="4">
+      <c r="J7" s="4">
         <v>1.82</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="3" t="s">
         <v>10</v>
       </c>
@@ -690,25 +716,28 @@
         <v>29</v>
       </c>
       <c r="D8" s="3">
+        <v>1</v>
+      </c>
+      <c r="E8" s="3">
         <v>13</v>
       </c>
-      <c r="E8" s="3">
-        <v>1</v>
-      </c>
       <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
         <v>42</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>7.4</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1.46</v>
       </c>
-      <c r="I8" s="4">
+      <c r="J8" s="4">
         <v>1.65</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
         <v>10</v>
       </c>
@@ -719,25 +748,28 @@
         <v>32</v>
       </c>
       <c r="D9" s="3">
+        <v>2</v>
+      </c>
+      <c r="E9" s="3">
         <v>11</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>75</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>23.3</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>7.76</v>
       </c>
-      <c r="I9" s="4">
+      <c r="J9" s="4">
         <v>7.22</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -751,22 +783,25 @@
         <v>2</v>
       </c>
       <c r="E10" s="3">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3">
         <v>3</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>23</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>6.4</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>0.19</v>
       </c>
-      <c r="I10" s="4">
+      <c r="J10" s="4">
         <v>1.29</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="27.5" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
@@ -777,21 +812,24 @@
         <v>26</v>
       </c>
       <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
         <v>4</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="3">
+      <c r="G11" s="3">
         <v>27</v>
       </c>
-      <c r="G11" s="3">
+      <c r="H11" s="3">
         <v>10.5</v>
       </c>
-      <c r="H11" s="3">
+      <c r="I11" s="3">
         <v>2.4700000000000002</v>
       </c>
-      <c r="I11" s="4">
+      <c r="J11" s="4">
         <v>0.36</v>
       </c>
     </row>
